--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1624920.744039933</v>
+        <v>1619058.424004754</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9301722.01141673</v>
+        <v>9300542.052635893</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.27064365780389</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>61.26958508926716</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.4084523938468</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.110409776860671</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>40.02170330568908</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>371.045726580617</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>139.5071472172379</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>2.236264487170892</v>
+        <v>83.26578655052985</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.8812695548171</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.84909166872227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>161.3099980110607</v>
+        <v>76.47341699539027</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1181,13 +1181,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.419053599019</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>115.6738908148323</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>16.6660020337868</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>55.63584681832641</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.11263674880573</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>59.14146526523407</v>
       </c>
       <c r="X14" t="n">
-        <v>303.533726526322</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.75561107290071</v>
+        <v>55.63584681832619</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574994</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565006</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167839</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.7231469819608</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380052</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667963</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.9727556664469</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883904</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541108</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658301</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038926</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656624</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X44" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>862.6879508334393</v>
+        <v>648.8009820296327</v>
       </c>
       <c r="C2" t="n">
-        <v>469.51244933637</v>
+        <v>255.6254805325632</v>
       </c>
       <c r="D2" t="n">
-        <v>469.51244933637</v>
+        <v>255.6254805325632</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>255.6254805325632</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634771</v>
+        <v>242.7714461029451</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475494</v>
+        <v>233.6490946313523</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475494</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253939</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354862</v>
+        <v>1376.714099066287</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T2" t="n">
-        <v>1908.388031177181</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>1652.63530161178</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V2" t="n">
-        <v>1652.63530161178</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.63530161178</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="X2" t="n">
-        <v>1263.182696544836</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.182696544836</v>
+        <v>1049.29572774103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>705.1769721472984</v>
+        <v>556.1927859813184</v>
       </c>
       <c r="C3" t="n">
-        <v>554.5227417073907</v>
+        <v>405.5385555414106</v>
       </c>
       <c r="D3" t="n">
-        <v>424.433774328871</v>
+        <v>275.4495881628909</v>
       </c>
       <c r="E3" t="n">
-        <v>287.9872834397587</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="F3" t="n">
-        <v>163.5554773228905</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475494</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475494</v>
+        <v>50.70568087437955</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>50.78821608954439</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>534.3543019878576</v>
       </c>
       <c r="M3" t="n">
-        <v>846.8008913552947</v>
+        <v>1047.956980597546</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1561.559659207235</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267596</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431033</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475494</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475494</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475494</v>
+        <v>197.062058897136</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>506.4075462870908</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>220.9687545289917</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V4" t="n">
-        <v>43.49565939475494</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475494</v>
+        <v>575.8072331779779</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475494</v>
+        <v>575.8072331779779</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475494</v>
+        <v>352.6951719946212</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>982.4257924839028</v>
+        <v>1224.909970779226</v>
       </c>
       <c r="C5" t="n">
-        <v>589.2502909868333</v>
+        <v>831.7344692821566</v>
       </c>
       <c r="D5" t="n">
-        <v>203.809162203501</v>
+        <v>831.7344692821566</v>
       </c>
       <c r="E5" t="n">
-        <v>203.809162203501</v>
+        <v>429.1509443987011</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>416.2969099690829</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3530084793352</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>668.673300197864</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207956</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845418</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.289453582685</v>
+        <v>1851.66173537634</v>
       </c>
       <c r="U5" t="n">
-        <v>1913.289453582685</v>
+        <v>1595.909005810939</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.289453582685</v>
+        <v>1595.909005810939</v>
       </c>
       <c r="W5" t="n">
-        <v>1772.373143262243</v>
+        <v>1224.909970779226</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.9205381953</v>
+        <v>1224.909970779226</v>
       </c>
       <c r="Y5" t="n">
-        <v>1382.9205381953</v>
+        <v>1224.909970779226</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>661.3930085297613</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767087</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.608572686801</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.867357696893</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O6" t="n">
-        <v>2069.387640287875</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P6" t="n">
-        <v>2069.387640287875</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>992.5035598952154</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>813.1893429707227</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>618.2256087514338</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V7" t="n">
-        <v>352.246263572258</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W7" t="n">
-        <v>352.246263572258</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X7" t="n">
-        <v>118.1659413552411</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.87392956865298</v>
+        <v>146.4338220642345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1177.189793764514</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.189793764514</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="D8" t="n">
-        <v>1014.250401834149</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
         <v>194.7724384806716</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1566.642398831457</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1177.189793764514</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1177.189793764514</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>559.0882834477352</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>388.8831655137244</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>233.2500524162392</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>744.2963021390365</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1653.0370227692</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.657796418324</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>800.8136995685213</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>470.0264498312597</v>
       </c>
       <c r="F11" t="n">
-        <v>655.772383357234</v>
+        <v>470.0264498312597</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,7 +5057,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2894.396791338645</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2624.086257188357</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2624.086257188357</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2306.429927267608</v>
+        <v>2089.230684054943</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.735493334403</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.744905612751</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.3326729474579</v>
+        <v>216.7257955609489</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9238301596411</v>
+        <v>118.3169527731321</v>
       </c>
       <c r="D13" t="n">
-        <v>389.0869922083497</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
         <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628194</v>
+        <v>741.8597555915629</v>
       </c>
       <c r="W13" t="n">
-        <v>661.345437340191</v>
+        <v>530.3256286689345</v>
       </c>
       <c r="X13" t="n">
-        <v>661.345437340191</v>
+        <v>368.0415815981116</v>
       </c>
       <c r="Y13" t="n">
-        <v>571.3326729474579</v>
+        <v>216.7257955609489</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880363</v>
+        <v>1374.479701206712</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1053.100474855836</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.911862892349</v>
+        <v>1053.100474855836</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550876</v>
+        <v>722.3132251185748</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312592</v>
+        <v>722.3132251185748</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.928571142733</v>
+        <v>2345.52893562587</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.328847378771</v>
+        <v>2027.87260570512</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445566</v>
+        <v>1703.178171771915</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.3917504485927</v>
+        <v>160.5279704919321</v>
       </c>
       <c r="C16" t="n">
-        <v>376.3917504485927</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485927</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539891</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457734</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>988.1475398457734</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W16" t="n">
-        <v>776.6134129231449</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3293658523219</v>
+        <v>368.0415815981112</v>
       </c>
       <c r="Y16" t="n">
-        <v>463.0135798151591</v>
+        <v>216.7257955609484</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5595,19 +5595,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,22 +5674,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5838,10 +5838,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6072,13 +6072,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012525</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,19 +6224,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
         <v>2986.344026377456</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1325.82389827615</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1842.344180867131</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2247.965549583528</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
@@ -6376,58 +6376,58 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6461,7 +6461,7 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
         <v>670.0483496134135</v>
@@ -6473,40 +6473,40 @@
         <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1501.557331157736</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517124</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835518</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.320147121372</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758834</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.34435976561</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1015.065931291253</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1670.843902501812</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929724</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404867</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245266</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652543</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374211</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>143.5810516071568</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>225.4160927170987</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805503</v>
+        <v>389.5437325908985</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458846</v>
+        <v>575.8353109291625</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041641</v>
+        <v>870.6770655353545</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1376.562239503607</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250197</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273691</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400718</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045801</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027486</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7020,7 +7020,7 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7096,22 +7096,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7154,37 +7154,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7202,16 +7202,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,46 +7336,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.661451296042</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879436</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296516</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7576,19 +7576,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7628,22 +7628,22 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975446</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924213</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>318.9689542635005</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L45" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588724</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072653</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462906</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964837994</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>246.323511680632</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>637.5111168138458</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>98.97569223556155</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N3" t="n">
-        <v>258.5795224705133</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>276.2476446788133</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>400.1079634407293</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837486</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886034</v>
+        <v>572.6307885465566</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>197.4480818931588</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>271.1401458256686</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8535,19 +8535,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>237.3130400541719</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8769,16 +8769,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>187.5973797276328</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9243,22 +9243,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>237.5738335035115</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9720,16 +9720,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,16 +9954,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101137</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>723.5863546247123</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210923</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,10 +10668,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11142,13 +11142,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>349.0412045852374</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>66.4429990601831</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>297.8137645877549</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.362622753452</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.6899914279854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>237.0692670214294</v>
       </c>
       <c r="X14" t="n">
-        <v>10.94604009521981</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.52201503675562</v>
+        <v>56.64177929133012</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>815200.9867406257</v>
+        <v>814599.4391268655</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>815200.9867406257</v>
+        <v>814599.4391268655</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>726988.2890516757</v>
+        <v>726988.2890516756</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>726988.2890516758</v>
+        <v>726988.2890516757</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="C2" t="n">
         <v>468863.6630427277</v>
       </c>
       <c r="D2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="E2" t="n">
         <v>414333.4609034411</v>
       </c>
       <c r="F2" t="n">
-        <v>414333.460903441</v>
+        <v>414333.4609034411</v>
       </c>
       <c r="G2" t="n">
         <v>468863.6630427276</v>
@@ -26335,13 +26335,13 @@
         <v>468863.6630427276</v>
       </c>
       <c r="J2" t="n">
+        <v>468863.6630427282</v>
+      </c>
+      <c r="K2" t="n">
         <v>468863.663042728</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>468863.6630427279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>468863.6630427269</v>
       </c>
       <c r="M2" t="n">
         <v>468863.6630427276</v>
@@ -26350,10 +26350,10 @@
         <v>468863.6630427277</v>
       </c>
       <c r="O2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="P2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427275</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539671</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081112</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277126</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805107</v>
       </c>
       <c r="F4" t="n">
         <v>99893.08150805104</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="H4" t="n">
         <v>147651.9979996332</v>
@@ -26445,13 +26445,13 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26491,25 +26491,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31028.90725669132</v>
+        <v>34778.8054572258</v>
       </c>
       <c r="C6" t="n">
-        <v>213233.8555485471</v>
+        <v>208637.462491281</v>
       </c>
       <c r="D6" t="n">
-        <v>207218.0538907738</v>
+        <v>199481.7646673824</v>
       </c>
       <c r="E6" t="n">
-        <v>149131.7982215051</v>
+        <v>148922.0666748153</v>
       </c>
       <c r="F6" t="n">
-        <v>261254.3596955494</v>
+        <v>261044.62814886</v>
       </c>
       <c r="G6" t="n">
-        <v>215616.5701908928</v>
+        <v>215616.5701908927</v>
       </c>
       <c r="H6" t="n">
         <v>263041.8957275748</v>
@@ -26543,16 +26543,16 @@
         <v>263041.8957275748</v>
       </c>
       <c r="J6" t="n">
-        <v>49999.9781302897</v>
+        <v>56516.26328486287</v>
       </c>
       <c r="K6" t="n">
-        <v>256802.1273247921</v>
+        <v>256802.1273247922</v>
       </c>
       <c r="L6" t="n">
-        <v>201619.5383901698</v>
+        <v>197570.7011796987</v>
       </c>
       <c r="M6" t="n">
-        <v>220841.0662679517</v>
+        <v>219789.3712567636</v>
       </c>
       <c r="N6" t="n">
         <v>263041.8957275749</v>
@@ -26561,7 +26561,7 @@
         <v>235274.2016848036</v>
       </c>
       <c r="P6" t="n">
-        <v>263041.8957275749</v>
+        <v>263041.8957275745</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293141</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014439</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924589</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287451</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>267.5715762713704</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9960113269103</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.86991870270491</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>39.78297167134685</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>87.6211875444896</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>240.4753947424451</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>37.9854013762598</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>227.7818974641575</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>185.1777423863176</v>
+        <v>104.1482203229586</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>50.04249597330386</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>177.0318489028008</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>220.2767194844383</v>
+        <v>305.1133005001087</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.46188697250406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28746,13 +28746,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,13 +28989,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901311</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599589</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833086</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.10808140893431</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224739</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253966</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30168,25 +30168,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30408,19 +30408,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634530115</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634528481</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733236</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634527685</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>93.07534195014031</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344367</v>
+        <v>487.7860652161186</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>9.378756902228204</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N3" t="n">
-        <v>173.2074096163467</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>133.189241499576</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>250.9894721029452</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344367</v>
+        <v>487.2586756923899</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.4599287372449</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>128.0817426464313</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35255,19 +35255,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>144.92591800486</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35489,16 +35489,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2252668734662</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M15" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35963,22 +35963,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>145.1867114541996</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,13 +36285,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594797</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>210.9596397950879</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047994</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114541997</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625836</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>631.1992325754004</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341172</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792976</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683160102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220344</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>76.79385455031482</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345596</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,19 +37704,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565501</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37862,13 +37862,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>259.444269251904</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,10 +38190,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724859</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
